--- a/Packages/cn.etetet.quest/Luban/Config/Datas/Quest.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Datas/Quest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B38D18-5B8D-5843-9DA6-FB8D7954AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29297A8-42A1-9C47-B396-8FAC09476B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="6640" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>驱赶野猪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,6 +164,50 @@
   </si>
   <si>
     <t>array,int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪骚扰老百姓，请帮忙清除！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴躁的熊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀1头熊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烦人的野猪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcceptedContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已接任务文本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢您帮我清除了野猪！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻烦您了！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近出现了一头熊，很危险！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -528,16 +571,15 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,37 +593,40 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -595,13 +640,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -613,19 +658,22 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -642,8 +690,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -657,71 +706,122 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10024</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10024</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10024</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10024</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -731,11 +831,12 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -745,9 +846,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
